--- a/src/main/resources/static/templates/formulaires.xlsx
+++ b/src/main/resources/static/templates/formulaires.xlsx
@@ -1,23 +1,156 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Auteur</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:area(lastCell="J4")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(items="formulaires", var="formulaire", multisheet="sheetNames")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(items="formulaire.sections", var="section")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(items="section.sections" var="section")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+  <si>
+    <t>Questionnaire</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Libelle</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>$(formulaire.name)</t>
+  </si>
+  <si>
+    <t>$(formulaire.numero)</t>
+  </si>
+  <si>
+    <t>$(section.name)</t>
+  </si>
+  <si>
+    <t>$(section.ordre)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +158,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -42,23 +194,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,37 +540,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/static/templates/formulaires.xlsx
+++ b/src/main/resources/static/templates/formulaires.xlsx
@@ -134,16 +134,16 @@
     <t>Section</t>
   </si>
   <si>
-    <t>$(formulaire.name)</t>
-  </si>
-  <si>
-    <t>$(formulaire.numero)</t>
-  </si>
-  <si>
-    <t>$(section.name)</t>
-  </si>
-  <si>
-    <t>$(section.ordre)</t>
+    <t>${formulaire.name}</t>
+  </si>
+  <si>
+    <t>${formulaire.numero}</t>
+  </si>
+  <si>
+    <t>${section.ordre}</t>
+  </si>
+  <si>
+    <t>${section.name}</t>
   </si>
 </sst>
 </file>
@@ -228,18 +228,18 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,7 +544,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,69 +556,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="6" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/src/main/resources/static/templates/formulaires.xlsx
+++ b/src/main/resources/static/templates/formulaires.xlsx
@@ -63,7 +63,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="formulaires", var="formulaire", multisheet="sheetNames")</t>
+jx:each(items="formulaires", var="formulaire", multisheet="sheetNames", lastCell="J4")</t>
         </r>
       </text>
     </comment>
@@ -87,7 +87,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="formulaire.sections", var="section")</t>
+jx:each(items="formulaire.sections", var="section", lastCell="J4")</t>
         </r>
       </text>
     </comment>
@@ -111,7 +111,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="section.sections" var="section")</t>
+jx:each(items="section.sections" var="section", lastCell="J4")</t>
         </r>
       </text>
     </comment>
@@ -544,7 +544,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/static/templates/formulaires.xlsx
+++ b/src/main/resources/static/templates/formulaires.xlsx
@@ -39,7 +39,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="J4")</t>
+jx:area(lastCell="J5")</t>
         </r>
       </text>
     </comment>
@@ -63,7 +63,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="formulaires", var="formulaire", multisheet="sheetNames", lastCell="J4")</t>
+jx:each(items="formulaires", var="formulaire", multisheet="sheetNames", lastCell="J5")</t>
         </r>
       </text>
     </comment>
@@ -87,7 +87,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="formulaire.sections", var="section", lastCell="J4")</t>
+jx:each(items="formulaire.sections", var="section", lastCell="J5")</t>
         </r>
       </text>
     </comment>
@@ -111,7 +111,31 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="section.sections" var="section", lastCell="J4")</t>
+jx:each(items="section.sections" var="section", lastCell="J5")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(items="section.lignesFormulaire" var="ligne" lastCell="J5")</t>
         </r>
       </text>
     </comment>
@@ -120,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Questionnaire</t>
   </si>
@@ -144,6 +168,15 @@
   </si>
   <si>
     <t>${section.name}</t>
+  </si>
+  <si>
+    <t>${ligne.code}</t>
+  </si>
+  <si>
+    <t>${ligne.libelle}</t>
+  </si>
+  <si>
+    <t>${ligne.contenu}</t>
   </si>
 </sst>
 </file>
@@ -186,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -222,23 +255,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,22 +635,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="17.140625" style="8" customWidth="1"/>
+    <col min="3" max="7" width="9.140625" style="8"/>
+    <col min="8" max="8" width="9.7109375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
@@ -567,65 +664,82 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="C4:I4"/>
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/src/main/resources/static/templates/formulaires.xlsx
+++ b/src/main/resources/static/templates/formulaires.xlsx
@@ -111,7 +111,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="section.sections" var="section", lastCell="J5")</t>
+jx:each(items="section.sections", var="section", lastCell="J5")</t>
         </r>
       </text>
     </comment>
@@ -135,7 +135,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="section.lignesFormulaire" var="ligne" lastCell="J5")</t>
+jx:each(items="section.lignesFormulaire", var="ligne", lastCell="J5")</t>
         </r>
       </text>
     </comment>
@@ -298,6 +298,27 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -305,27 +326,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -638,59 +638,59 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="17.140625" style="8" customWidth="1"/>
-    <col min="3" max="7" width="9.140625" style="8"/>
-    <col min="8" max="8" width="9.7109375" style="8" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="27.28515625" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="17.140625" style="5" customWidth="1"/>
+    <col min="3" max="7" width="9.140625" style="5"/>
+    <col min="8" max="8" width="9.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="7"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="9" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="10"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -704,7 +704,7 @@
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -718,7 +718,7 @@
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="12" t="s">

--- a/src/main/resources/static/templates/formulaires.xlsx
+++ b/src/main/resources/static/templates/formulaires.xlsx
@@ -87,7 +87,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="formulaire.sections", var="section", lastCell="J5")</t>
+jx:each(items="formulaire.sections", var="section", lastCell="J4")</t>
         </r>
       </text>
     </comment>
@@ -301,38 +301,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,103 +638,104 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="17.140625" style="5" customWidth="1"/>
-    <col min="3" max="7" width="9.140625" style="5"/>
-    <col min="8" max="8" width="9.7109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="27.28515625" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="17.140625" style="2" customWidth="1"/>
+    <col min="3" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="9.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="6" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="7"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="C4:I4"/>

--- a/src/main/resources/static/templates/formulaires.xlsx
+++ b/src/main/resources/static/templates/formulaires.xlsx
@@ -39,7 +39,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="J5")</t>
+jx:area(lastCell="J6")</t>
         </r>
       </text>
     </comment>
@@ -63,7 +63,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="formulaires", var="formulaire", multisheet="sheetNames", lastCell="J5")</t>
+jx:each(items="formulaires", var="formulaire", multisheet="sheetNames", lastCell="J6")</t>
         </r>
       </text>
     </comment>
@@ -87,7 +87,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="formulaire.sections", var="section", lastCell="J4")</t>
+jx:each(items="formulaire.sections", var="section", lastCell="J6")</t>
         </r>
       </text>
     </comment>
@@ -111,7 +111,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="section.sections", var="section", lastCell="J5")</t>
+jx:each(items="section.sections", var="subSection", lastCell="J6")</t>
         </r>
       </text>
     </comment>
@@ -135,7 +135,31 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="section.lignesFormulaire", var="ligne", lastCell="J5")</t>
+jx:each(items="subSection.lignesFormulaire", var="ligne", lastCell="J6")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(items="section.lignesFormulaire", var="ligne", lastCell="J6")</t>
         </r>
       </text>
     </comment>
@@ -144,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Questionnaire</t>
   </si>
@@ -296,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -310,18 +334,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -333,6 +345,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,30 +680,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="12"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
       <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
@@ -693,52 +720,70 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="G5:I5"/>
   </mergeCells>

--- a/src/main/resources/static/templates/formulaires.xlsx
+++ b/src/main/resources/static/templates/formulaires.xlsx
@@ -111,35 +111,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="section.sections", var="subSection", lastCell="J6")</t>
+jx:each(items="section.sections", var="section", lastCell="J6")</t>
         </r>
       </text>
     </comment>
     <comment ref="A5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:each(items="subSection.lignesFormulaire", var="ligne", lastCell="J6")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Questionnaire</t>
   </si>
@@ -320,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -332,9 +308,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -662,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,30 +653,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
@@ -720,70 +693,52 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="6">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:I6"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="G5:I5"/>
   </mergeCells>

--- a/src/main/resources/static/templates/formulaires.xlsx
+++ b/src/main/resources/static/templates/formulaires.xlsx
@@ -39,7 +39,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="J6")</t>
+jx:area(lastCell="J6", multisheet="sheetNames")</t>
         </r>
       </text>
     </comment>
@@ -63,7 +63,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="formulaires", var="formulaire", multisheet="sheetNames", lastCell="J6")</t>
+jx:each(items="formulaires", var="formulaire", lastCell="J6")</t>
         </r>
       </text>
     </comment>
@@ -87,7 +87,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="formulaire.sections", var="section", lastCell="J6")</t>
+jx:each(items="formulaire.sections", var="section", lastCell="J4")</t>
         </r>
       </text>
     </comment>
@@ -638,7 +638,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/static/templates/formulaires.xlsx
+++ b/src/main/resources/static/templates/formulaires.xlsx
@@ -39,7 +39,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="J6", multisheet="sheetNames")</t>
+jx:area(lastCell="J6")</t>
         </r>
       </text>
     </comment>
@@ -63,7 +63,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="formulaires", var="formulaire", lastCell="J6")</t>
+jx:each(items="formulaires", var="formulaire", multisheet="sheetNames", lastCell="J6")</t>
         </r>
       </text>
     </comment>
@@ -87,7 +87,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="formulaire.sections", var="section", lastCell="J4")</t>
+jx:each(items="formulaire.sections", var="section", lastCell="J6")</t>
         </r>
       </text>
     </comment>
@@ -111,11 +111,35 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="section.sections", var="section", lastCell="J6")</t>
+jx:each(items="section.sections", var="nestedSection", lastCell="J6")</t>
         </r>
       </text>
     </comment>
     <comment ref="A5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(items="nestedSection.lignesFormulaire", var="nestedLigne", lastCell="J6")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Questionnaire</t>
   </si>
@@ -177,6 +201,21 @@
   </si>
   <si>
     <t>${ligne.contenu}</t>
+  </si>
+  <si>
+    <t>${nestedSection.ordre}</t>
+  </si>
+  <si>
+    <t>${nestedSection.name}</t>
+  </si>
+  <si>
+    <t>${nestedLigne.code}</t>
+  </si>
+  <si>
+    <t>${nestedLigne.libelle}</t>
+  </si>
+  <si>
+    <t>${nestedLigne.contenu}</t>
   </si>
 </sst>
 </file>
@@ -296,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -308,6 +347,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -635,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,30 +695,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
       <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
@@ -693,48 +735,66 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="C3:I3"/>

--- a/src/main/resources/static/templates/formulaires.xlsx
+++ b/src/main/resources/static/templates/formulaires.xlsx
@@ -111,54 +111,6 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="section.sections", var="nestedSection", lastCell="J6")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:each(items="nestedSection.lignesFormulaire", var="nestedLigne", lastCell="J6")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
 jx:each(items="section.lignesFormulaire", var="ligne", lastCell="J6")</t>
         </r>
       </text>
@@ -168,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Questionnaire</t>
   </si>
@@ -201,21 +153,6 @@
   </si>
   <si>
     <t>${ligne.contenu}</t>
-  </si>
-  <si>
-    <t>${nestedSection.ordre}</t>
-  </si>
-  <si>
-    <t>${nestedSection.name}</t>
-  </si>
-  <si>
-    <t>${nestedLigne.code}</t>
-  </si>
-  <si>
-    <t>${nestedLigne.libelle}</t>
-  </si>
-  <si>
-    <t>${nestedLigne.contenu}</t>
   </si>
 </sst>
 </file>
@@ -352,6 +289,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -371,9 +311,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -677,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,30 +632,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
@@ -735,72 +672,39 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:I6"/>
+  <mergeCells count="5">
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:I4"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/src/main/resources/static/templates/formulaires.xlsx
+++ b/src/main/resources/static/templates/formulaires.xlsx
@@ -39,7 +39,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="J6")</t>
+jx:area(lastCell="J4")</t>
         </r>
       </text>
     </comment>
@@ -63,31 +63,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="formulaires", var="formulaire", multisheet="sheetNames", lastCell="J6")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:each(items="formulaire.sections", var="section", lastCell="J6")</t>
+jx:each(items="formulaires", var="formulaire", multisheet="sheetNames", lastCell="J4")</t>
         </r>
       </text>
     </comment>
@@ -111,7 +87,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="section.lignesFormulaire", var="ligne", lastCell="J6")</t>
+jx:each(items="formulaire.lignesFormulaire", var="ligne", lastCell="J4")</t>
         </r>
       </text>
     </comment>
@@ -120,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Questionnaire</t>
   </si>
@@ -131,21 +107,12 @@
     <t>Libelle</t>
   </si>
   <si>
-    <t>Section</t>
-  </si>
-  <si>
     <t>${formulaire.name}</t>
   </si>
   <si>
     <t>${formulaire.numero}</t>
   </si>
   <si>
-    <t>${section.ordre}</t>
-  </si>
-  <si>
-    <t>${section.name}</t>
-  </si>
-  <si>
     <t>${ligne.code}</t>
   </si>
   <si>
@@ -153,13 +120,22 @@
   </si>
   <si>
     <t>${ligne.contenu}</t>
+  </si>
+  <si>
+    <t>Reponses</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Reponse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +156,14 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -195,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -222,13 +206,48 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -239,9 +258,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -250,9 +267,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -263,26 +278,31 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -292,26 +312,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,96 +656,102 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="17.140625" style="2" customWidth="1"/>
-    <col min="3" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="9.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="27.28515625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
+    <col min="3" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="4"/>
+      <c r="H2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/static/templates/formulaires.xlsx
+++ b/src/main/resources/static/templates/formulaires.xlsx
@@ -312,28 +312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -343,6 +322,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -351,6 +345,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,7 +656,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,84 +671,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="9" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="13"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="16" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/static/templates/formulaires.xlsx
+++ b/src/main/resources/static/templates/formulaires.xlsx
@@ -43,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0">
+    <comment ref="A5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -298,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -325,32 +325,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B2" sqref="B2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,85 +673,86 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="11"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="5" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="2"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="2"/>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="14" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="7"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G4:I4"/>
     <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="B1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/static/templates/formulaires.xlsx
+++ b/src/main/resources/static/templates/formulaires.xlsx
@@ -39,7 +39,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="J4")</t>
+jx:area(lastCell="J5")</t>
         </r>
       </text>
     </comment>
@@ -63,7 +63,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="formulaires", var="formulaire", multisheet="sheetNames", lastCell="J4")</t>
+jx:each(items="formulaires", var="formulaire", multisheet="sheetNames", lastCell="J5")</t>
         </r>
       </text>
     </comment>
@@ -87,7 +87,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="formulaire.lignesFormulaire", var="ligne", lastCell="J4")</t>
+jx:each(items="formulaire.lignesFormulaire", var="ligne", lastCell="J5")</t>
         </r>
       </text>
     </comment>
@@ -179,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -255,18 +255,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -275,22 +264,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -298,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -313,9 +287,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -325,22 +296,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -352,8 +311,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -659,7 +636,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,10 +650,9 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="19" t="s">
+    <row r="1" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="19"/>
@@ -685,65 +661,64 @@
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="11"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="I3" s="17"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="16" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="7"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/src/main/resources/static/templates/formulaires.xlsx
+++ b/src/main/resources/static/templates/formulaires.xlsx
@@ -43,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -299,7 +299,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -310,27 +331,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,7 +636,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,35 +652,35 @@
   <sheetData>
     <row r="1" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="17"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -690,17 +690,17 @@
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="11" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -708,17 +708,17 @@
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
